--- a/results/mp/tinybert/corona/confidence/168/topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,9 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
@@ -52,99 +49,87 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>better</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
@@ -154,16 +139,28 @@
     <t>help</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>share</t>
+    <t>you</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -521,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,10 +526,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -590,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -640,7 +637,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C4">
         <v>23</v>
@@ -658,19 +655,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -690,13 +687,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7647058823529411</v>
+        <v>0.6095890410958904</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -708,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -740,13 +737,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7467532467532467</v>
+        <v>0.1957364341085271</v>
       </c>
       <c r="C6">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D6">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>39</v>
+        <v>415</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -782,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="L7">
         <v>24</v>
       </c>
-      <c r="K7">
-        <v>0.9</v>
-      </c>
-      <c r="L7">
-        <v>36</v>
-      </c>
       <c r="M7">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,13 +837,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3928571428571428</v>
+        <v>0.05277777777777778</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,19 +855,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>341</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K8">
-        <v>0.8823529411764706</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L8">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="M8">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -882,45 +879,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.296137339055794</v>
-      </c>
-      <c r="C9">
-        <v>69</v>
-      </c>
-      <c r="D9">
-        <v>69</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>164</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K9">
-        <v>0.875</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -932,45 +905,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.2441860465116279</v>
-      </c>
-      <c r="C10">
-        <v>21</v>
-      </c>
-      <c r="D10">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>65</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K10">
-        <v>0.8703703703703703</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -986,167 +935,95 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
+      <c r="J11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11">
+        <v>0.8203125</v>
+      </c>
+      <c r="L11">
+        <v>105</v>
+      </c>
+      <c r="M11">
+        <v>105</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L12">
+        <v>29</v>
+      </c>
+      <c r="M12">
+        <v>29</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13">
+        <v>0.8048780487804879</v>
+      </c>
+      <c r="L13">
+        <v>66</v>
+      </c>
+      <c r="M13">
+        <v>66</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.1625</v>
-      </c>
-      <c r="C11">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>67</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L11">
-        <v>48</v>
-      </c>
-      <c r="M11">
-        <v>48</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.1037037037037037</v>
-      </c>
-      <c r="C12">
-        <v>14</v>
-      </c>
-      <c r="D12">
-        <v>14</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>121</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L12">
-        <v>22</v>
-      </c>
-      <c r="M12">
-        <v>22</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>100</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13">
-        <v>0.803921568627451</v>
-      </c>
-      <c r="L13">
-        <v>41</v>
-      </c>
-      <c r="M13">
-        <v>41</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7586206896551724</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L14">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="M14">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1158,21 +1035,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7435897435897436</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1184,21 +1061,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.72</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L16">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1210,21 +1087,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.6986301369863014</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L17">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="M17">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1236,21 +1113,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.6724137931034483</v>
+        <v>0.69375</v>
       </c>
       <c r="L18">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="M18">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1262,21 +1139,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.64</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1288,21 +1165,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.625</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L20">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1314,21 +1191,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6153846153846154</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L21">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="M21">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1340,21 +1217,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.6060606060606061</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1366,21 +1243,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.5882352941176471</v>
+        <v>0.6</v>
       </c>
       <c r="L23">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1392,21 +1269,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5789473684210527</v>
+        <v>0.5300261096605744</v>
       </c>
       <c r="L24">
-        <v>11</v>
+        <v>203</v>
       </c>
       <c r="M24">
-        <v>11</v>
+        <v>203</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1418,21 +1295,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5727699530516432</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="L25">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1444,21 +1321,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5142857142857142</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L26">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M26">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1470,21 +1347,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5138888888888888</v>
+        <v>0.45</v>
       </c>
       <c r="L27">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="M27">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1496,21 +1373,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>70</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.5038759689922481</v>
+        <v>0.4203389830508474</v>
       </c>
       <c r="L28">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="M28">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1522,21 +1399,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>64</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L29">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1548,21 +1425,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.4666666666666667</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L30">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M30">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1574,21 +1451,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.391304347826087</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L31">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M31">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1600,21 +1477,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.3684210526315789</v>
+        <v>0.2887029288702929</v>
       </c>
       <c r="L32">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="M32">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1626,7 +1503,111 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>24</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33">
+        <v>0.0175</v>
+      </c>
+      <c r="L33">
+        <v>21</v>
+      </c>
+      <c r="M33">
+        <v>21</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34">
+        <v>0.009337068160597572</v>
+      </c>
+      <c r="L34">
+        <v>20</v>
+      </c>
+      <c r="M34">
+        <v>21</v>
+      </c>
+      <c r="N34">
+        <v>0.95</v>
+      </c>
+      <c r="O34">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35">
+        <v>0.004621072088724584</v>
+      </c>
+      <c r="L35">
+        <v>20</v>
+      </c>
+      <c r="M35">
+        <v>20</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36">
+        <v>0.004603682946357086</v>
+      </c>
+      <c r="L36">
+        <v>23</v>
+      </c>
+      <c r="M36">
+        <v>23</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>4973</v>
       </c>
     </row>
   </sheetData>
